--- a/src/filesExcel/TestPattern.xlsx
+++ b/src/filesExcel/TestPattern.xlsx
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -218,6 +218,34 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -245,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -311,11 +339,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -382,6 +443,66 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -664,34 +785,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI100"/>
+  <dimension ref="A1:AI104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P120" sqref="P120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.45" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="33.05859375" customWidth="1"/>
-    <col min="16" max="16" width="19.234375" customWidth="1"/>
+    <col min="1" max="1" width="4.76171875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="27.87890625" style="16" customWidth="1"/>
+    <col min="3" max="4" width="5.52734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="11.64453125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="6.3515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.76171875" style="42" customWidth="1"/>
+    <col min="8" max="12" width="8.87890625" style="43"/>
+    <col min="13" max="14" width="9.52734375" style="43" customWidth="1"/>
+    <col min="15" max="15" width="10.64453125" style="16" customWidth="1"/>
+    <col min="16" max="16" width="25.52734375" style="16" customWidth="1"/>
+    <col min="17" max="17" width="8.87890625" style="16"/>
     <col min="18" max="18" width="28.41015625" style="16" customWidth="1"/>
     <col min="19" max="19" width="16.41015625" style="16" customWidth="1"/>
+    <col min="20" max="21" width="8.87890625" style="16" customWidth="1"/>
     <col min="22" max="22" width="23.1171875" style="16" customWidth="1"/>
     <col min="23" max="29" width="8.87890625" style="16" customWidth="1"/>
+    <col min="30" max="16384" width="8.87890625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+    </row>
+    <row r="2" spans="1:35" ht="16.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:35" s="7" customFormat="1" ht="40.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+    </row>
+    <row r="3" spans="1:35" ht="12.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+    </row>
+    <row r="4" spans="1:35" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +966,26 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="14"/>
     </row>
-    <row r="5" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="31"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20">
+        <f>H5+J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <f>I5+K5</f>
+        <v>0</v>
+      </c>
       <c r="N5" s="20" t="str">
         <f t="shared" ref="N5:N68" si="0">IF(AND(P5=$V$5,L5&lt;$W$5),$W$4,IF(AND(P5=$V$5,L5&gt;=$W$5,L5&lt;=$X$5),$X$4,IF(AND(P5=$V$5,L5&gt;$X$5,L5&lt;=$Y$5),$Y$4,IF(AND(P5=$V$5,L5&gt;$Y$5,L5&lt;=$Z$5),$Z$4,IF(AND(P5=$V$5,L5&gt;$Z$5,L5&lt;=$AA$5),$AA$4,IF(AND(P5=$V$5,L5&gt;$AA$5,L5&lt;=$AB$5),$AB$4,IF(AND(P5=$V$5,L5&gt;$AB$5,L5&lt;=$AC$5),$AC$4,IF(AND(P5=$V$6,L5&lt;$W$6),$W$4,IF(AND(P5=$V$6,L5&gt;=$W$6,L5&lt;=$X$6),$X$4,IF(AND(P5=$V$6,L5&gt;$X$6,L5&lt;=$Y$6),$Y$4,IF(AND(P5=$V$6,L5&gt;$Y$6,L5&lt;=$Z$6),$Z$4,IF(AND(P5=$V$6,L5&gt;$Z$6,L5&lt;=$AA$6),$AA$4,IF(AND(P5=$V$6,L5&gt;$AA$6,L5&lt;=$AB$6),$AB$4,IF(AND(P5=$V$6,L5&gt;$AB$6,L5&lt;=$AC$6),$AC$4,IF(AND(P5=$V$7,L5&lt;$W$7),$W$4,IF(AND(P5=$V$7,L5&gt;=$W$7,L5&lt;=$X$7),$X$4,IF(AND(P5=$V$7,L5&gt;$X$7,L5&lt;=$Y$7),$Y$4,IF(AND(P5=$V$7,L5&gt;$Y$7,L5&lt;=$Z$7),$Z$4,IF(AND(P5=$V$7,L5&gt;$Z$7,L5&lt;=$AA$7),$AA$4,IF(AND(P5=$V$7,L5&gt;$AA$7,L5&lt;=$AB$7),$AB$4,IF(AND(P5=$V$7,L5&gt;$AB$7,L5&lt;=$AC$7),$AC$4,IF(AND(P5=$V$8,L5&lt;$W$8),$W$4,IF(AND(P5=$V$8,L5&gt;=$W$8,L5&lt;=$X$8),$X$4,IF(AND(P5=$V$8,L5&gt;$X$8,L5&lt;=$Y$8),$Y$4,IF(AND(P5=$V$8,L5&gt;$Y$8,L5&lt;=$Z$8),$Z$4,IF(AND(P5=$V$8,L5&gt;$Z$8,L5&lt;=$AA$8),$AA$4,IF(AND(P5=$V$8,L5&gt;$AA$8,L5&lt;=$AB$8),$AB$4,IF(AND(P5=$V$8,L5&gt;$AB$8,L5&lt;=$AC$8),$AC$4,IF(AND(P5=$V$9,L5&lt;$W$9),$W$4,IF(AND(P5=$V$9,L5&gt;=$W$9,L5&lt;=$X$9),$X$4,IF(AND(P5=$V$9,L5&gt;$X$9,L5&lt;=$Y$9),$Y$4,IF(AND(P5=$V$9,L5&gt;$Y$9,L5&lt;=$Z$9),$Z$4,IF(AND(P5=$V$9,L5&gt;$Z$9,L5&lt;=$AA$9),$AA$4,IF(AND(P5=$V$9,L5&gt;$AA$9,L5&lt;=$AB$9),$AB$4,IF(AND(P5=$V$9,L5&gt;$AB$9,L5&lt;=$AC$9),$AC$4,IF(AND(P5=$V$10,L5&lt;$W$10),$W$4,IF(AND(P5=$V$10,L5&gt;=$W$10,L5&lt;=$X$10),$X$4,IF(AND(P5=$V$10,L5&gt;$X$10,L5&lt;=$Y$10),$Y$4,IF(AND(P5=$V$10,L5&gt;$Y$10,L5&lt;=$Z$10),$Z$4,IF(AND(P5=$V$10,L5&gt;$Z$10,L5&lt;=$AA$10),$AA$4,IF(AND(P5=$V$10,L5&gt;$AA$10,L5&lt;=$AB$10),$AB$4,IF(AND(P5=$V$10,L5&gt;$AB$10,L5&lt;=$AC$10),$AC$4,IF(AND(P5=$V$11,L5&lt;$W$11),$W$4,IF(AND(P5=$V$11,L5&gt;=$W$11,L5&lt;=$X$11),$X$4,IF(AND(P5=$V$11,L5&gt;$X$11,L5&lt;=$Y$11),$Y$4,IF(AND(P5=$V$11,L5&gt;$Y$11,L5&lt;=$Z$11),$Z$4,IF(AND(P5=$V$11,L5&gt;$Z$11,L5&lt;=$AA$11),$AA$4,IF(AND(P5=$V$11,L5&gt;$AA$11,L5&lt;=$AB$11),$AB$4,IF(AND(P5=$V$11,L5&gt;$AB$11,L5&lt;=$AC$11),$AC$4,IF(AND(P5=$V$12,L5&lt;$W$12),$W$4,IF(AND(P5=$V$12,L5&gt;=$W$12,L5&lt;=$X$12),$X$4,IF(AND(P5=$V$12,L5&gt;$X$12,L5&lt;=$Y$12),$Y$4,IF(AND(P5=$V$12,L5&gt;$Y$12,L5&lt;=$Z$12),$Z$4,IF(AND(P5=$V$12,L5&gt;$Z$12,L5&lt;=$AA$12),$AA$4,IF(AND(P5=$V$12,L5&gt;$AA$12,L5&lt;=$AB$12),$AB$4,IF(AND(P5=$V$12,L5&gt;$AB$12,L5&lt;=$AC$12),$AC$4,"-"))))))))))))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>-</v>
@@ -797,6 +1005,7 @@
         <f t="shared" ref="S5:S20" si="1">SUMIF($P$5:$P$104,R5,$O$5:$O$104)</f>
         <v>0</v>
       </c>
+      <c r="T5"/>
       <c r="V5" s="10" t="s">
         <v>26</v>
       </c>
@@ -821,18 +1030,43 @@
       <c r="AC5" s="10">
         <v>1056</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD5"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+    </row>
+    <row r="6" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20">
+        <f t="shared" ref="L6:L69" si="2">H6+J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <f t="shared" ref="M6:M69" si="3">I6+K6</f>
+        <v>0</v>
+      </c>
       <c r="N6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O6" s="21" t="str">
-        <f t="shared" ref="O6:O69" si="2">IF(C6=0,"0",1)</f>
+        <f t="shared" ref="O6:O69" si="4">IF(C6=0,"0",1)</f>
         <v>0</v>
       </c>
       <c r="P6" s="11" t="str">
-        <f t="shared" ref="P6:P69" si="3">CONCATENATE(G6," ",C6)</f>
+        <f t="shared" ref="P6:P69" si="5">CONCATENATE(G6," ",C6)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R6" s="19" t="s">
@@ -842,6 +1076,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T6"/>
       <c r="V6" s="10" t="s">
         <v>27</v>
       </c>
@@ -866,18 +1101,38 @@
       <c r="AC6" s="10">
         <v>1056</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD6"/>
+    </row>
+    <row r="7" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="31"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O7" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R7" s="19" t="s">
@@ -887,6 +1142,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T7"/>
       <c r="V7" s="10" t="s">
         <v>28</v>
       </c>
@@ -911,18 +1167,38 @@
       <c r="AC7" s="10">
         <v>1056</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD7"/>
+    </row>
+    <row r="8" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="31"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O8" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P8" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R8" s="19" t="s">
@@ -932,6 +1208,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T8"/>
       <c r="V8" s="10" t="s">
         <v>29</v>
       </c>
@@ -956,18 +1233,38 @@
       <c r="AC8" s="10">
         <v>1056</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD8"/>
+    </row>
+    <row r="9" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="31"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O9" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P9" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R9" s="19" t="s">
@@ -977,6 +1274,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T9"/>
       <c r="V9" s="10" t="s">
         <v>30</v>
       </c>
@@ -1001,18 +1299,38 @@
       <c r="AC9" s="10">
         <v>1056</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD9"/>
+    </row>
+    <row r="10" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O10" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P10" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R10" s="19" t="s">
@@ -1022,6 +1340,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T10"/>
       <c r="V10" s="10" t="s">
         <v>31</v>
       </c>
@@ -1046,18 +1365,38 @@
       <c r="AC10" s="10">
         <v>1056</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD10"/>
+    </row>
+    <row r="11" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O11" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P11" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R11" s="19" t="s">
@@ -1067,6 +1406,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T11"/>
       <c r="V11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1091,18 +1431,38 @@
       <c r="AC11" s="10">
         <v>1056</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD11"/>
+    </row>
+    <row r="12" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="31"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O12" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P12" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R12" s="19" t="s">
@@ -1112,6 +1472,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T12"/>
       <c r="V12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1136,18 +1497,38 @@
       <c r="AC12" s="10">
         <v>1056</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD12"/>
+    </row>
+    <row r="13" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="31"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O13" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P13" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R13" s="19" t="s">
@@ -1157,6 +1538,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T13"/>
       <c r="V13" s="17" t="s">
         <v>34</v>
       </c>
@@ -1181,18 +1563,38 @@
       <c r="AC13" s="17">
         <v>1056</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD13"/>
+    </row>
+    <row r="14" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O14" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P14" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R14" s="19" t="s">
@@ -1202,6 +1604,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T14"/>
       <c r="V14" s="17" t="s">
         <v>35</v>
       </c>
@@ -1226,18 +1629,38 @@
       <c r="AC14" s="17">
         <v>1056</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD14"/>
+    </row>
+    <row r="15" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="31"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O15" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P15" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R15" s="19" t="s">
@@ -1247,6 +1670,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T15"/>
       <c r="V15"/>
       <c r="W15"/>
       <c r="X15"/>
@@ -1255,18 +1679,38 @@
       <c r="AA15"/>
       <c r="AB15"/>
       <c r="AC15"/>
-    </row>
-    <row r="16" spans="1:35" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD15"/>
+    </row>
+    <row r="16" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="31"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O16" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P16" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R16" s="19" t="s">
@@ -1276,6 +1720,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T16"/>
       <c r="V16"/>
       <c r="W16"/>
       <c r="X16"/>
@@ -1284,18 +1729,38 @@
       <c r="AA16"/>
       <c r="AB16"/>
       <c r="AC16"/>
-    </row>
-    <row r="17" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD16"/>
+    </row>
+    <row r="17" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O17" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R17" s="19" t="s">
@@ -1305,6 +1770,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T17"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
@@ -1313,18 +1779,38 @@
       <c r="AA17"/>
       <c r="AB17"/>
       <c r="AC17"/>
-    </row>
-    <row r="18" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD17"/>
+    </row>
+    <row r="18" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="31"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O18" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P18" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R18" s="19" t="s">
@@ -1334,22 +1820,43 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T18"/>
       <c r="Z18" s="15"/>
       <c r="AA18"/>
       <c r="AB18"/>
       <c r="AC18"/>
-    </row>
-    <row r="19" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD18"/>
+    </row>
+    <row r="19" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="31"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O19" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P19" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R19" s="19" t="s">
@@ -1359,6 +1866,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T19"/>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
@@ -1367,18 +1875,39 @@
       <c r="AA19"/>
       <c r="AB19"/>
       <c r="AC19"/>
-    </row>
-    <row r="20" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD19"/>
+      <c r="AE19"/>
+    </row>
+    <row r="20" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O20" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P20" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R20" s="19" t="s">
@@ -1388,6 +1917,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T20"/>
       <c r="V20" s="18"/>
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
@@ -1396,18 +1926,39 @@
       <c r="AA20"/>
       <c r="AB20"/>
       <c r="AC20"/>
-    </row>
-    <row r="21" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD20"/>
+      <c r="AE20"/>
+    </row>
+    <row r="21" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="31"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R21" s="19" t="s">
@@ -1417,6 +1968,7 @@
         <f>SUM(S5:S20)</f>
         <v>0</v>
       </c>
+      <c r="T21"/>
       <c r="V21"/>
       <c r="W21"/>
       <c r="X21"/>
@@ -1425,20 +1977,42 @@
       <c r="AA21"/>
       <c r="AB21"/>
       <c r="AC21"/>
-    </row>
-    <row r="22" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD21"/>
+      <c r="AE21"/>
+    </row>
+    <row r="22" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="31"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N22" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O22" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T22"/>
       <c r="V22"/>
       <c r="W22"/>
       <c r="X22"/>
@@ -1447,1102 +2021,2660 @@
       <c r="AA22"/>
       <c r="AB22"/>
       <c r="AC22"/>
-    </row>
-    <row r="23" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD22"/>
+      <c r="AE22"/>
+    </row>
+    <row r="23" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="31"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N23" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O23" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P23" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z23"/>
       <c r="AA23"/>
       <c r="AB23"/>
       <c r="AC23"/>
-    </row>
-    <row r="24" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD23"/>
+      <c r="AE23"/>
+    </row>
+    <row r="24" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="31"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N24" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O24" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P24" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="25" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N25" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O25" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P25" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="26" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="31"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N26" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O26" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P26" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="27" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="31"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N27" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O27" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P27" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="28" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="31"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O28" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P28" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="29" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="31"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N29" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O29" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P29" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="30" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="31"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N30" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O30" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P30" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="31" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="31"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N31" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O31" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="32" spans="14:29" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="31"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N32" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O32" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P32" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="33" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="31"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N33" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O33" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P33" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="34" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="31"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N34" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O34" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P34" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="35" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="31"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N35" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O35" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P35" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="36" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="31"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N36" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O36" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P36" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="37" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="31"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N37" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O37" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P37" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="38" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="31"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N38" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O38" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P38" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="39" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="31"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N39" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O39" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P39" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="40" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="31"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N40" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O40" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P40" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="41" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="31"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N41" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O41" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P41" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="42" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="31"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N42" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O42" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P42" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="43" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="31"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N43" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O43" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P43" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="44" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="31"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N44" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O44" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P44" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="45" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="31"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N45" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O45" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P45" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="46" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="31"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N46" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O46" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P46" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="47" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="31"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N47" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O47" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P47" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="48" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="31"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N48" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O48" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P48" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="49" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="31"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N49" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O49" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P49" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="50" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="31"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N50" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O50" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P50" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="51" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="31"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N51" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O51" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P51" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="52" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="31"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N52" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O52" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P52" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="53" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="31"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N53" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O53" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P53" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="54" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="31"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N54" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O54" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P54" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="55" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="31"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N55" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O55" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P55" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="56" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="31"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N56" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O56" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P56" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="57" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="31"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N57" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O57" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P57" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="58" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="31"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N58" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O58" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P58" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="59" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="31"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N59" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O59" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P59" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="60" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="31"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N60" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O60" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P60" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="61" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="31"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N61" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O61" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P61" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="62" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="31"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N62" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O62" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P62" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="63" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="31"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N63" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O63" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P63" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="64" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="31"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N64" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O64" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P64" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="65" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="31"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N65" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O65" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P65" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="66" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="31"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N66" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O66" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P66" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="67" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="31"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N67" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O67" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P67" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="68" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="31"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N68" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="O68" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P68" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="69" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="31"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N69" s="20" t="str">
-        <f t="shared" ref="N69:N100" si="4">IF(AND(P69=$V$5,L69&lt;$W$5),$W$4,IF(AND(P69=$V$5,L69&gt;=$W$5,L69&lt;=$X$5),$X$4,IF(AND(P69=$V$5,L69&gt;$X$5,L69&lt;=$Y$5),$Y$4,IF(AND(P69=$V$5,L69&gt;$Y$5,L69&lt;=$Z$5),$Z$4,IF(AND(P69=$V$5,L69&gt;$Z$5,L69&lt;=$AA$5),$AA$4,IF(AND(P69=$V$5,L69&gt;$AA$5,L69&lt;=$AB$5),$AB$4,IF(AND(P69=$V$5,L69&gt;$AB$5,L69&lt;=$AC$5),$AC$4,IF(AND(P69=$V$6,L69&lt;$W$6),$W$4,IF(AND(P69=$V$6,L69&gt;=$W$6,L69&lt;=$X$6),$X$4,IF(AND(P69=$V$6,L69&gt;$X$6,L69&lt;=$Y$6),$Y$4,IF(AND(P69=$V$6,L69&gt;$Y$6,L69&lt;=$Z$6),$Z$4,IF(AND(P69=$V$6,L69&gt;$Z$6,L69&lt;=$AA$6),$AA$4,IF(AND(P69=$V$6,L69&gt;$AA$6,L69&lt;=$AB$6),$AB$4,IF(AND(P69=$V$6,L69&gt;$AB$6,L69&lt;=$AC$6),$AC$4,IF(AND(P69=$V$7,L69&lt;$W$7),$W$4,IF(AND(P69=$V$7,L69&gt;=$W$7,L69&lt;=$X$7),$X$4,IF(AND(P69=$V$7,L69&gt;$X$7,L69&lt;=$Y$7),$Y$4,IF(AND(P69=$V$7,L69&gt;$Y$7,L69&lt;=$Z$7),$Z$4,IF(AND(P69=$V$7,L69&gt;$Z$7,L69&lt;=$AA$7),$AA$4,IF(AND(P69=$V$7,L69&gt;$AA$7,L69&lt;=$AB$7),$AB$4,IF(AND(P69=$V$7,L69&gt;$AB$7,L69&lt;=$AC$7),$AC$4,IF(AND(P69=$V$8,L69&lt;$W$8),$W$4,IF(AND(P69=$V$8,L69&gt;=$W$8,L69&lt;=$X$8),$X$4,IF(AND(P69=$V$8,L69&gt;$X$8,L69&lt;=$Y$8),$Y$4,IF(AND(P69=$V$8,L69&gt;$Y$8,L69&lt;=$Z$8),$Z$4,IF(AND(P69=$V$8,L69&gt;$Z$8,L69&lt;=$AA$8),$AA$4,IF(AND(P69=$V$8,L69&gt;$AA$8,L69&lt;=$AB$8),$AB$4,IF(AND(P69=$V$8,L69&gt;$AB$8,L69&lt;=$AC$8),$AC$4,IF(AND(P69=$V$9,L69&lt;$W$9),$W$4,IF(AND(P69=$V$9,L69&gt;=$W$9,L69&lt;=$X$9),$X$4,IF(AND(P69=$V$9,L69&gt;$X$9,L69&lt;=$Y$9),$Y$4,IF(AND(P69=$V$9,L69&gt;$Y$9,L69&lt;=$Z$9),$Z$4,IF(AND(P69=$V$9,L69&gt;$Z$9,L69&lt;=$AA$9),$AA$4,IF(AND(P69=$V$9,L69&gt;$AA$9,L69&lt;=$AB$9),$AB$4,IF(AND(P69=$V$9,L69&gt;$AB$9,L69&lt;=$AC$9),$AC$4,IF(AND(P69=$V$10,L69&lt;$W$10),$W$4,IF(AND(P69=$V$10,L69&gt;=$W$10,L69&lt;=$X$10),$X$4,IF(AND(P69=$V$10,L69&gt;$X$10,L69&lt;=$Y$10),$Y$4,IF(AND(P69=$V$10,L69&gt;$Y$10,L69&lt;=$Z$10),$Z$4,IF(AND(P69=$V$10,L69&gt;$Z$10,L69&lt;=$AA$10),$AA$4,IF(AND(P69=$V$10,L69&gt;$AA$10,L69&lt;=$AB$10),$AB$4,IF(AND(P69=$V$10,L69&gt;$AB$10,L69&lt;=$AC$10),$AC$4,IF(AND(P69=$V$11,L69&lt;$W$11),$W$4,IF(AND(P69=$V$11,L69&gt;=$W$11,L69&lt;=$X$11),$X$4,IF(AND(P69=$V$11,L69&gt;$X$11,L69&lt;=$Y$11),$Y$4,IF(AND(P69=$V$11,L69&gt;$Y$11,L69&lt;=$Z$11),$Z$4,IF(AND(P69=$V$11,L69&gt;$Z$11,L69&lt;=$AA$11),$AA$4,IF(AND(P69=$V$11,L69&gt;$AA$11,L69&lt;=$AB$11),$AB$4,IF(AND(P69=$V$11,L69&gt;$AB$11,L69&lt;=$AC$11),$AC$4,IF(AND(P69=$V$12,L69&lt;$W$12),$W$4,IF(AND(P69=$V$12,L69&gt;=$W$12,L69&lt;=$X$12),$X$4,IF(AND(P69=$V$12,L69&gt;$X$12,L69&lt;=$Y$12),$Y$4,IF(AND(P69=$V$12,L69&gt;$Y$12,L69&lt;=$Z$12),$Z$4,IF(AND(P69=$V$12,L69&gt;$Z$12,L69&lt;=$AA$12),$AA$4,IF(AND(P69=$V$12,L69&gt;$AA$12,L69&lt;=$AB$12),$AB$4,IF(AND(P69=$V$12,L69&gt;$AB$12,L69&lt;=$AC$12),$AC$4,"-"))))))))))))))))))))))))))))))))))))))))))))))))))))))))</f>
+        <f t="shared" ref="N69:N100" si="6">IF(AND(P69=$V$5,L69&lt;$W$5),$W$4,IF(AND(P69=$V$5,L69&gt;=$W$5,L69&lt;=$X$5),$X$4,IF(AND(P69=$V$5,L69&gt;$X$5,L69&lt;=$Y$5),$Y$4,IF(AND(P69=$V$5,L69&gt;$Y$5,L69&lt;=$Z$5),$Z$4,IF(AND(P69=$V$5,L69&gt;$Z$5,L69&lt;=$AA$5),$AA$4,IF(AND(P69=$V$5,L69&gt;$AA$5,L69&lt;=$AB$5),$AB$4,IF(AND(P69=$V$5,L69&gt;$AB$5,L69&lt;=$AC$5),$AC$4,IF(AND(P69=$V$6,L69&lt;$W$6),$W$4,IF(AND(P69=$V$6,L69&gt;=$W$6,L69&lt;=$X$6),$X$4,IF(AND(P69=$V$6,L69&gt;$X$6,L69&lt;=$Y$6),$Y$4,IF(AND(P69=$V$6,L69&gt;$Y$6,L69&lt;=$Z$6),$Z$4,IF(AND(P69=$V$6,L69&gt;$Z$6,L69&lt;=$AA$6),$AA$4,IF(AND(P69=$V$6,L69&gt;$AA$6,L69&lt;=$AB$6),$AB$4,IF(AND(P69=$V$6,L69&gt;$AB$6,L69&lt;=$AC$6),$AC$4,IF(AND(P69=$V$7,L69&lt;$W$7),$W$4,IF(AND(P69=$V$7,L69&gt;=$W$7,L69&lt;=$X$7),$X$4,IF(AND(P69=$V$7,L69&gt;$X$7,L69&lt;=$Y$7),$Y$4,IF(AND(P69=$V$7,L69&gt;$Y$7,L69&lt;=$Z$7),$Z$4,IF(AND(P69=$V$7,L69&gt;$Z$7,L69&lt;=$AA$7),$AA$4,IF(AND(P69=$V$7,L69&gt;$AA$7,L69&lt;=$AB$7),$AB$4,IF(AND(P69=$V$7,L69&gt;$AB$7,L69&lt;=$AC$7),$AC$4,IF(AND(P69=$V$8,L69&lt;$W$8),$W$4,IF(AND(P69=$V$8,L69&gt;=$W$8,L69&lt;=$X$8),$X$4,IF(AND(P69=$V$8,L69&gt;$X$8,L69&lt;=$Y$8),$Y$4,IF(AND(P69=$V$8,L69&gt;$Y$8,L69&lt;=$Z$8),$Z$4,IF(AND(P69=$V$8,L69&gt;$Z$8,L69&lt;=$AA$8),$AA$4,IF(AND(P69=$V$8,L69&gt;$AA$8,L69&lt;=$AB$8),$AB$4,IF(AND(P69=$V$8,L69&gt;$AB$8,L69&lt;=$AC$8),$AC$4,IF(AND(P69=$V$9,L69&lt;$W$9),$W$4,IF(AND(P69=$V$9,L69&gt;=$W$9,L69&lt;=$X$9),$X$4,IF(AND(P69=$V$9,L69&gt;$X$9,L69&lt;=$Y$9),$Y$4,IF(AND(P69=$V$9,L69&gt;$Y$9,L69&lt;=$Z$9),$Z$4,IF(AND(P69=$V$9,L69&gt;$Z$9,L69&lt;=$AA$9),$AA$4,IF(AND(P69=$V$9,L69&gt;$AA$9,L69&lt;=$AB$9),$AB$4,IF(AND(P69=$V$9,L69&gt;$AB$9,L69&lt;=$AC$9),$AC$4,IF(AND(P69=$V$10,L69&lt;$W$10),$W$4,IF(AND(P69=$V$10,L69&gt;=$W$10,L69&lt;=$X$10),$X$4,IF(AND(P69=$V$10,L69&gt;$X$10,L69&lt;=$Y$10),$Y$4,IF(AND(P69=$V$10,L69&gt;$Y$10,L69&lt;=$Z$10),$Z$4,IF(AND(P69=$V$10,L69&gt;$Z$10,L69&lt;=$AA$10),$AA$4,IF(AND(P69=$V$10,L69&gt;$AA$10,L69&lt;=$AB$10),$AB$4,IF(AND(P69=$V$10,L69&gt;$AB$10,L69&lt;=$AC$10),$AC$4,IF(AND(P69=$V$11,L69&lt;$W$11),$W$4,IF(AND(P69=$V$11,L69&gt;=$W$11,L69&lt;=$X$11),$X$4,IF(AND(P69=$V$11,L69&gt;$X$11,L69&lt;=$Y$11),$Y$4,IF(AND(P69=$V$11,L69&gt;$Y$11,L69&lt;=$Z$11),$Z$4,IF(AND(P69=$V$11,L69&gt;$Z$11,L69&lt;=$AA$11),$AA$4,IF(AND(P69=$V$11,L69&gt;$AA$11,L69&lt;=$AB$11),$AB$4,IF(AND(P69=$V$11,L69&gt;$AB$11,L69&lt;=$AC$11),$AC$4,IF(AND(P69=$V$12,L69&lt;$W$12),$W$4,IF(AND(P69=$V$12,L69&gt;=$W$12,L69&lt;=$X$12),$X$4,IF(AND(P69=$V$12,L69&gt;$X$12,L69&lt;=$Y$12),$Y$4,IF(AND(P69=$V$12,L69&gt;$Y$12,L69&lt;=$Z$12),$Z$4,IF(AND(P69=$V$12,L69&gt;$Z$12,L69&lt;=$AA$12),$AA$4,IF(AND(P69=$V$12,L69&gt;$AA$12,L69&lt;=$AB$12),$AB$4,IF(AND(P69=$V$12,L69&gt;$AB$12,L69&lt;=$AC$12),$AC$4,"-"))))))))))))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>-</v>
       </c>
       <c r="O69" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P69" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="70" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="31"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20">
+        <f t="shared" ref="L70:L100" si="7">H70+J70</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="20">
+        <f t="shared" ref="M70:M100" si="8">I70+K70</f>
+        <v>0</v>
+      </c>
       <c r="N70" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="O70" s="21" t="str">
-        <f t="shared" ref="O70:O100" si="5">IF(C70=0,"0",1)</f>
+        <f t="shared" ref="O70:O100" si="9">IF(C70=0,"0",1)</f>
         <v>0</v>
       </c>
       <c r="P70" s="11" t="str">
-        <f t="shared" ref="P70:P100" si="6">CONCATENATE(G70," ",C70)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="71" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" ref="P70:P100" si="10">CONCATENATE(G70," ",C70)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="31"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N71" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="O71" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P71" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="31"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="72" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N72" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O72" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P72" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="31"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="73" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N73" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O73" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P73" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="31"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="74" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N74" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O74" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P74" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="31"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="75" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N75" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O75" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P75" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="31"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="76" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N76" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O76" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P76" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A77" s="31"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="77" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N77" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O77" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P77" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A78" s="31"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="78" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N78" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O78" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P78" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="31"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="79" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N79" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O79" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P79" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="31"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="80" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N80" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O80" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P80" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="31"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="81" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N81" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O81" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P81" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="31"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="82" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N82" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O82" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P82" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="31"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="83" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N83" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O83" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P83" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="31"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="84" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N84" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O84" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P84" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="31"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="85" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N85" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O85" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P85" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="31"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="86" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N86" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O86" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P86" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="31"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="87" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N87" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O87" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P87" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A88" s="31"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="88" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N88" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O88" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P88" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A89" s="31"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="89" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N89" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O89" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P89" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="31"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="90" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N90" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O90" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P90" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A91" s="31"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="91" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N91" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O91" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P91" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A92" s="31"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="92" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N92" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O92" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P92" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A93" s="31"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="93" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N93" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O93" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P93" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="94" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N94" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O94" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P94" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="95" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N95" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O95" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P95" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="96" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N96" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O96" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P96" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="97" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N97" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O97" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P97" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="98" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N98" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O98" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P98" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="99" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N99" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O99" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P99" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="20" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="100" spans="14:16" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N100" s="20" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="O100" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P100" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A101" s="32"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="20"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="11"/>
+    </row>
+    <row r="102" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="11"/>
+    </row>
+    <row r="103" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A103" s="32"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="11"/>
+    </row>
+    <row r="104" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="32"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="20"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/filesExcel/TestPattern.xlsx
+++ b/src/filesExcel/TestPattern.xlsx
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.45" x14ac:dyDescent="0.45"/>
@@ -982,7 +982,7 @@
         <v>509</v>
       </c>
       <c r="X5" s="10">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="Y5" s="10">
         <v>629</v>
